--- a/Running projects/Bank Al Habib Center Point Karachi/Overhead fill PPRC pipe/002- invoice for Mobilization advance..xlsx
+++ b/Running projects/Bank Al Habib Center Point Karachi/Overhead fill PPRC pipe/002- invoice for Mobilization advance..xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Bank Al Habib Center Point Karachi\Overhead fill PPRC pipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0183D73-40C9-47E0-A15E-8798EECC3EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDBB661-BC07-40E2-B6C4-5C26DFFF61AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Supply" sheetId="1" r:id="rId1"/>
+    <sheet name="Labour" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Labour!$A$1:$D$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Supply!$A$1:$D$40</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t xml:space="preserve">Invoice </t>
   </si>
@@ -69,16 +69,22 @@
     <t>M/S Bank AL Habib Limited</t>
   </si>
   <si>
-    <t>Total Cost of Work</t>
+    <t>005</t>
   </si>
   <si>
-    <t>29 Oct 2024</t>
+    <t>18 Nov 2024</t>
   </si>
   <si>
-    <t>003</t>
+    <t>Request of Mobilization Advance for supply of Replacement of the overhead fill PPRC Pipe at BAHL Center Point Karachi.</t>
   </si>
   <si>
-    <t>Request of Mobilization Advance for Replacement of the overhead fill PPRC Pipe at BAHL Center Point Karachi.</t>
+    <t>Total Cost of Work (Supply scope)</t>
+  </si>
+  <si>
+    <t>Total Cost of Work (Installation scope)</t>
+  </si>
+  <si>
+    <t>Request of Mobilization Advance for installation of Replacement of the overhead fill PPRC Pipe at BAHL Center Point Karachi.</t>
   </si>
 </sst>
 </file>
@@ -801,6 +807,333 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>286448</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>97194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>405102</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152983</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C2D899-81A8-4C45-BAB4-6C006ECE107F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10983023" y="497244"/>
+          <a:ext cx="2557054" cy="1055914"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>311021</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>137822</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="752474" cy="567068"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D88B3F-6EEF-4A61-99C1-C2BBF9EFCCDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10397996" y="8043572"/>
+          <a:ext cx="752474" cy="567068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>398494</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>87473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>262423</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>23908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D7B0444-EABD-41B5-B95F-5402C7FF3F55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8656669" y="1487648"/>
+          <a:ext cx="1083129" cy="1012760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>166321</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>178772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>166914</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Text Box 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{385266DE-DC49-41B9-BCBC-FFB81EE15DA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9643696" y="1778972"/>
+          <a:ext cx="4373022" cy="864442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>IONEER </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>ERVICES</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Book Antiqua"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>191018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>42902</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>97194</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EF0B5C-91CA-4373-B17D-6A72C9D3655E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7583260" y="8696843"/>
+          <a:ext cx="717817" cy="544351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -1090,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A11:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1124,7 +1457,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -1165,7 +1498,7 @@
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="50"/>
       <c r="C18" s="50"/>
@@ -1206,13 +1539,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="28">
-        <v>2653042</v>
+        <v>2492042</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1237,7 +1570,7 @@
       </c>
       <c r="D26" s="37">
         <f>D23*20%</f>
-        <v>530608.4</v>
+        <v>498408.4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1342,25 +1675,256 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1530670-2B96-48B2-AA1C-599B004B0C9F}">
+  <dimension ref="A11:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="1:4" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="24" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A16" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="51"/>
+    </row>
+    <row r="22" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="28">
+        <v>161000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="36"/>
+    </row>
+    <row r="25" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="37">
+        <f>D23*20%</f>
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="45"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="45"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="45"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="14"/>
+      <c r="D30" s="46"/>
+      <c r="F30" s="44"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="43"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="C21:D21"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0" bottom="0.31" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>